--- a/TestList/7.0FJJS-ClassOpenStatistics.xlsx
+++ b/TestList/7.0FJJS-ClassOpenStatistics.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24645" windowHeight="12015"/>
+    <workbookView windowWidth="18450" windowHeight="10965"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t xml:space="preserve">http://fjjsrckjjy.59iedu.com/login/index </t>
+    <t xml:space="preserve">https://fjjsrckjjy.59iedu.com/login/index </t>
   </si>
   <si>
     <t>空</t>
@@ -111,7 +111,7 @@
     <t>Class opening menu</t>
   </si>
   <si>
-    <t>http://fjjsrckjjy.59iedu.com/admin/classEstablish</t>
+    <t>https://fjjsrckjjy.59iedu.com/admin/classEstablish</t>
   </si>
   <si>
     <t>Class opening query button</t>
@@ -135,9 +135,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -156,23 +156,84 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -181,7 +242,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,66 +279,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -263,30 +286,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -301,175 +301,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,16 +496,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -534,6 +534,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -554,21 +584,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -577,21 +592,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -600,10 +600,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -612,16 +612,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -630,115 +630,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1104,7 +1104,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1339,8 +1339,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="http://fjjsrckjjy.59iedu.com/login/index " tooltip="http://fjjsrckjjy.59iedu.com/login/index "/>
-    <hyperlink ref="E9" r:id="rId2" display="http://fjjsrckjjy.59iedu.com/admin/classEstablish"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://fjjsrckjjy.59iedu.com/login/index " tooltip="https://fjjsrckjjy.59iedu.com/login/index "/>
+    <hyperlink ref="E9" r:id="rId2" display="https://fjjsrckjjy.59iedu.com/admin/classEstablish" tooltip="https://fjjsrckjjy.59iedu.com/admin/classEstablish"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
